--- a/项目计划书 GitOffice - 终稿（以这个为准，排版提交）.xlsx
+++ b/项目计划书 GitOffice - 终稿（以这个为准，排版提交）.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repositories\DesignDoc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="中国区项目计划书" sheetId="1" r:id="rId1"/>
     <sheet name="开发路线" sheetId="2" r:id="rId2"/>
     <sheet name="汇总" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="110">
   <si>
     <t>Imagine Cup 2016 微软“创新杯”全球学生科技大赛</t>
   </si>
@@ -105,7 +110,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>IC</t>
     </r>
@@ -125,7 +130,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Email</t>
     </r>
@@ -601,7 +606,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">OneDrive
 </t>
@@ -699,14 +704,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="49">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -718,7 +717,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -745,7 +744,7 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -808,7 +807,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -826,7 +825,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -873,156 +872,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1054,8 +910,13 @@
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1074,194 +935,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1548,26 +1223,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1576,226 +1269,62 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1857,48 +1386,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1917,96 +1407,18 @@
     <xf numFmtId="1" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="9" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2017,12 +1429,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -2033,91 +1439,231 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00F98A45"/>
-      <color rgb="00EA473A"/>
-      <color rgb="00FF6600"/>
-      <color rgb="00FF3300"/>
-      <color rgb="00008FD6"/>
-      <color rgb="00009FEE"/>
-      <color rgb="000085C8"/>
+      <color rgb="FFF98A45"/>
+      <color rgb="FFEA473A"/>
+      <color rgb="FFFF6600"/>
+      <color rgb="FFFF3300"/>
+      <color rgb="FF008FD6"/>
+      <color rgb="FF009FEE"/>
+      <color rgb="FF0085C8"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2428875</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2128,7 +1674,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:lum/>
         </a:blip>
         <a:srcRect/>
@@ -2157,13 +1703,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>385240</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>813435</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>560704</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2174,7 +1720,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -2196,13 +1742,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1524964</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>314469</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2213,7 +1759,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2241,13 +1787,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>523875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>534035</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>2991485</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2258,7 +1804,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -2279,15 +1825,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>447675</xdr:rowOff>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>789709</xdr:rowOff>
+      <xdr:colOff>1285875</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>561109</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2296,8 +1842,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1952625" y="31335345"/>
-          <a:ext cx="6781800" cy="3580130"/>
+          <a:off x="1885950" y="34575750"/>
+          <a:ext cx="6781800" cy="3580534"/>
           <a:chOff x="15582900" y="6211166"/>
           <a:chExt cx="6781800" cy="3580534"/>
         </a:xfrm>
@@ -2315,7 +1861,7 @@
             <a:chExt cx="6781800" cy="2913784"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="74" name="直接连接符 11"/>
             <xdr:cNvCxnSpPr>
@@ -2357,7 +1903,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="75" name="直接连接符 13"/>
             <xdr:cNvCxnSpPr>
@@ -2399,7 +1945,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="76" name="直接连接符 15"/>
             <xdr:cNvCxnSpPr>
@@ -2441,7 +1987,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="77" name="直接连接符 17"/>
             <xdr:cNvCxnSpPr>
@@ -2483,7 +2029,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="78" name="直接连接符 19"/>
             <xdr:cNvCxnSpPr>
@@ -2538,7 +2084,7 @@
               <a:chExt cx="6781800" cy="2913784"/>
             </a:xfrm>
           </xdr:grpSpPr>
-          <xdr:sp>
+          <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="80" name="圆角矩形 79"/>
               <xdr:cNvSpPr/>
@@ -2610,7 +2156,7 @@
                 <a:chExt cx="6781800" cy="1943100"/>
               </a:xfrm>
             </xdr:grpSpPr>
-            <xdr:cxnSp>
+            <xdr:cxnSp macro="">
               <xdr:nvCxnSpPr>
                 <xdr:cNvPr id="82" name="肘形连接符 81"/>
                 <xdr:cNvCxnSpPr>
@@ -2663,7 +2209,7 @@
                   <a:chExt cx="6781800" cy="1943100"/>
                 </a:xfrm>
               </xdr:grpSpPr>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="84" name="圆角矩形 83"/>
                   <xdr:cNvSpPr/>
@@ -2715,7 +2261,7 @@
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="85" name="圆角矩形 84"/>
                   <xdr:cNvSpPr/>
@@ -2767,7 +2313,7 @@
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="86" name="圆角矩形 85"/>
                   <xdr:cNvSpPr/>
@@ -2819,7 +2365,7 @@
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="87" name="圆角矩形 86"/>
                   <xdr:cNvSpPr/>
@@ -2871,7 +2417,7 @@
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="88" name="圆角矩形 87"/>
                   <xdr:cNvSpPr/>
@@ -2923,7 +2469,7 @@
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="89" name="圆角矩形 88"/>
                   <xdr:cNvSpPr/>
@@ -2975,7 +2521,7 @@
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="90" name="圆角矩形 89"/>
                   <xdr:cNvSpPr/>
@@ -3027,7 +2573,7 @@
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:cxnSp>
+              <xdr:cxnSp macro="">
                 <xdr:nvCxnSpPr>
                   <xdr:cNvPr id="91" name="肘形连接符 90"/>
                   <xdr:cNvCxnSpPr>
@@ -3071,7 +2617,7 @@
           </xdr:grpSp>
         </xdr:grpSp>
       </xdr:grpSp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="73" name="文本框 72"/>
           <xdr:cNvSpPr txBox="1"/>
@@ -3119,16 +2665,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1314450</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>1371600</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>1362075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>619125</xdr:rowOff>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3137,7 +2683,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2571750" y="35497770"/>
+          <a:off x="2657475" y="38957250"/>
           <a:ext cx="5343525" cy="3733800"/>
           <a:chOff x="8762999" y="9715500"/>
           <a:chExt cx="5343525" cy="3733800"/>
@@ -3169,7 +2715,7 @@
               <a:chExt cx="5343525" cy="1200151"/>
             </a:xfrm>
           </xdr:grpSpPr>
-          <xdr:sp>
+          <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="116" name="圆角矩形 115"/>
               <xdr:cNvSpPr/>
@@ -3212,7 +2758,7 @@
               </a:p>
             </xdr:txBody>
           </xdr:sp>
-          <xdr:sp>
+          <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="117" name="圆角矩形 116"/>
               <xdr:cNvSpPr/>
@@ -3255,7 +2801,7 @@
               </a:p>
             </xdr:txBody>
           </xdr:sp>
-          <xdr:sp>
+          <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="118" name="圆角矩形 117"/>
               <xdr:cNvSpPr/>
@@ -3314,7 +2860,7 @@
               </a:p>
             </xdr:txBody>
           </xdr:sp>
-          <xdr:sp>
+          <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="119" name="圆角矩形 118"/>
               <xdr:cNvSpPr/>
@@ -3371,7 +2917,7 @@
               <a:chExt cx="1943100" cy="1781175"/>
             </a:xfrm>
           </xdr:grpSpPr>
-          <xdr:sp>
+          <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="113" name="圆角矩形 112"/>
               <xdr:cNvSpPr/>
@@ -3414,7 +2960,7 @@
               </a:p>
             </xdr:txBody>
           </xdr:sp>
-          <xdr:sp>
+          <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="114" name="圆角矩形 113"/>
               <xdr:cNvSpPr/>
@@ -3467,7 +3013,7 @@
               </a:p>
             </xdr:txBody>
           </xdr:sp>
-          <xdr:sp>
+          <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="115" name="圆角矩形 114"/>
               <xdr:cNvSpPr/>
@@ -3521,7 +3067,7 @@
             </xdr:txBody>
           </xdr:sp>
         </xdr:grpSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="111" name="圆角矩形 110"/>
             <xdr:cNvSpPr/>
@@ -3564,7 +3110,7 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="112" name="左右箭头 111"/>
             <xdr:cNvSpPr/>
@@ -3604,7 +3150,7 @@
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="108" name="文本框 107"/>
           <xdr:cNvSpPr txBox="1"/>
@@ -3654,7 +3200,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3676,7 +3222,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3731,7 +3277,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -3788,7 +3334,7 @@
             <a:chExt cx="6781800" cy="2913784"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="12" name="直接连接符 11"/>
             <xdr:cNvCxnSpPr>
@@ -3830,7 +3376,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="14" name="直接连接符 13"/>
             <xdr:cNvCxnSpPr>
@@ -3872,7 +3418,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="16" name="直接连接符 15"/>
             <xdr:cNvCxnSpPr>
@@ -3914,7 +3460,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="18" name="直接连接符 17"/>
             <xdr:cNvCxnSpPr>
@@ -3956,7 +3502,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="20" name="直接连接符 19"/>
             <xdr:cNvCxnSpPr>
@@ -4011,7 +3557,7 @@
               <a:chExt cx="6781800" cy="2913784"/>
             </a:xfrm>
           </xdr:grpSpPr>
-          <xdr:sp>
+          <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="3" name="圆角矩形 2"/>
               <xdr:cNvSpPr/>
@@ -4083,7 +3629,7 @@
                 <a:chExt cx="6781800" cy="1943100"/>
               </a:xfrm>
             </xdr:grpSpPr>
-            <xdr:cxnSp>
+            <xdr:cxnSp macro="">
               <xdr:nvCxnSpPr>
                 <xdr:cNvPr id="25" name="肘形连接符 24"/>
                 <xdr:cNvCxnSpPr>
@@ -4136,7 +3682,7 @@
                   <a:chExt cx="6781800" cy="1943100"/>
                 </a:xfrm>
               </xdr:grpSpPr>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="5" name="圆角矩形 4"/>
                   <xdr:cNvSpPr/>
@@ -4188,7 +3734,7 @@
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="6" name="圆角矩形 5"/>
                   <xdr:cNvSpPr/>
@@ -4240,7 +3786,7 @@
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="7" name="圆角矩形 6"/>
                   <xdr:cNvSpPr/>
@@ -4292,7 +3838,7 @@
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="8" name="圆角矩形 7"/>
                   <xdr:cNvSpPr/>
@@ -4344,7 +3890,7 @@
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="10" name="圆角矩形 9"/>
                   <xdr:cNvSpPr/>
@@ -4396,7 +3942,7 @@
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="22" name="圆角矩形 21"/>
                   <xdr:cNvSpPr/>
@@ -4448,7 +3994,7 @@
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="23" name="圆角矩形 22"/>
                   <xdr:cNvSpPr/>
@@ -4500,7 +4046,7 @@
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:cxnSp>
+              <xdr:cxnSp macro="">
                 <xdr:nvCxnSpPr>
                   <xdr:cNvPr id="27" name="肘形连接符 26"/>
                   <xdr:cNvCxnSpPr>
@@ -4544,7 +4090,7 @@
           </xdr:grpSp>
         </xdr:grpSp>
       </xdr:grpSp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="45" name="文本框 44"/>
           <xdr:cNvSpPr txBox="1"/>
@@ -4642,7 +4188,7 @@
               <a:chExt cx="5343525" cy="1200151"/>
             </a:xfrm>
           </xdr:grpSpPr>
-          <xdr:sp>
+          <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="33" name="圆角矩形 32"/>
               <xdr:cNvSpPr/>
@@ -4685,7 +4231,7 @@
               </a:p>
             </xdr:txBody>
           </xdr:sp>
-          <xdr:sp>
+          <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="34" name="圆角矩形 33"/>
               <xdr:cNvSpPr/>
@@ -4728,7 +4274,7 @@
               </a:p>
             </xdr:txBody>
           </xdr:sp>
-          <xdr:sp>
+          <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="35" name="圆角矩形 34"/>
               <xdr:cNvSpPr/>
@@ -4787,7 +4333,7 @@
               </a:p>
             </xdr:txBody>
           </xdr:sp>
-          <xdr:sp>
+          <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="36" name="圆角矩形 35"/>
               <xdr:cNvSpPr/>
@@ -4844,7 +4390,7 @@
               <a:chExt cx="1943100" cy="1781175"/>
             </a:xfrm>
           </xdr:grpSpPr>
-          <xdr:sp>
+          <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="37" name="圆角矩形 36"/>
               <xdr:cNvSpPr/>
@@ -4887,7 +4433,7 @@
               </a:p>
             </xdr:txBody>
           </xdr:sp>
-          <xdr:sp>
+          <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="38" name="圆角矩形 37"/>
               <xdr:cNvSpPr/>
@@ -4940,7 +4486,7 @@
               </a:p>
             </xdr:txBody>
           </xdr:sp>
-          <xdr:sp>
+          <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="39" name="圆角矩形 38"/>
               <xdr:cNvSpPr/>
@@ -4994,7 +4540,7 @@
             </xdr:txBody>
           </xdr:sp>
         </xdr:grpSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="42" name="圆角矩形 41"/>
             <xdr:cNvSpPr/>
@@ -5037,7 +4583,7 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="43" name="左右箭头 42"/>
             <xdr:cNvSpPr/>
@@ -5077,7 +4623,7 @@
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="47" name="文本框 46"/>
           <xdr:cNvSpPr txBox="1"/>
@@ -5129,42 +4675,113 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AI2" headerRowCount="0">
   <tableColumns count="35">
-    <tableColumn id="1" name="参赛队伍名称"/>
-    <tableColumn id="2" name="参赛作品名称"/>
-    <tableColumn id="3" name="队长姓名"/>
-    <tableColumn id="4" name="学校名称"/>
-    <tableColumn id="5" name="联系电话"/>
-    <tableColumn id="6" name="电子邮箱"/>
-    <tableColumn id="7" name="邮寄地址"/>
-    <tableColumn id="8" name="团队新浪微博账号"/>
-    <tableColumn id="9" name="参赛区域/校区"/>
-    <tableColumn id="10" name="参赛项目"/>
-    <tableColumn id="11" name="选手一"/>
-    <tableColumn id="12" name="学校名称1"/>
-    <tableColumn id="13" name="院系/年级1"/>
-    <tableColumn id="14" name="电话1"/>
-    <tableColumn id="15" name="IC站点注册Email1"/>
-    <tableColumn id="16" name="选手二"/>
-    <tableColumn id="17" name="学校名称2"/>
-    <tableColumn id="18" name="院系/年级2"/>
-    <tableColumn id="19" name="电话2"/>
-    <tableColumn id="20" name="IC站点注册Email2"/>
-    <tableColumn id="21" name="选手三"/>
-    <tableColumn id="22" name="学校名称3"/>
-    <tableColumn id="23" name="院系/年级3"/>
-    <tableColumn id="24" name="电话3"/>
-    <tableColumn id="25" name="IC站点注册Email3"/>
-    <tableColumn id="26" name="选手四"/>
-    <tableColumn id="27" name="学校名称4"/>
-    <tableColumn id="28" name="院系/年级4"/>
-    <tableColumn id="29" name="电话4"/>
-    <tableColumn id="30" name="IC站点注册Email4"/>
-    <tableColumn id="31" name="导师"/>
-    <tableColumn id="32" name="学校名称5"/>
-    <tableColumn id="33" name="院系/年级5"/>
-    <tableColumn id="34" name="电话5"/>
-    <tableColumn id="35" name="IC站点注册Email5"/>
+    <tableColumn id="1" name="参赛队伍名称">
+      <calculatedColumnFormula>中国区项目计划书!C3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="参赛作品名称">
+      <calculatedColumnFormula>中国区项目计划书!C4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="队长姓名">
+      <calculatedColumnFormula>中国区项目计划书!C5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="学校名称">
+      <calculatedColumnFormula>中国区项目计划书!C6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="联系电话">
+      <calculatedColumnFormula>中国区项目计划书!C7</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="电子邮箱">
+      <calculatedColumnFormula>中国区项目计划书!C8</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="邮寄地址">
+      <calculatedColumnFormula>中国区项目计划书!C9</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="团队新浪微博账号">
+      <calculatedColumnFormula>中国区项目计划书!C10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="参赛区域/校区">
+      <calculatedColumnFormula>中国区项目计划书!C11</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="参赛项目">
+      <calculatedColumnFormula>中国区项目计划书!C12</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="选手一">
+      <calculatedColumnFormula>中国区项目计划书!B15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="学校名称1">
+      <calculatedColumnFormula>中国区项目计划书!C15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" name="院系/年级1">
+      <calculatedColumnFormula>中国区项目计划书!D15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="电话1">
+      <calculatedColumnFormula>中国区项目计划书!E15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="IC站点注册Email1">
+      <calculatedColumnFormula>中国区项目计划书!F15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="选手二">
+      <calculatedColumnFormula>中国区项目计划书!B16</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="学校名称2">
+      <calculatedColumnFormula>中国区项目计划书!C16</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="院系/年级2">
+      <calculatedColumnFormula>中国区项目计划书!D16</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" name="电话2">
+      <calculatedColumnFormula>中国区项目计划书!E16</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="IC站点注册Email2">
+      <calculatedColumnFormula>中国区项目计划书!F16</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="选手三">
+      <calculatedColumnFormula>中国区项目计划书!B17</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="学校名称3">
+      <calculatedColumnFormula>中国区项目计划书!C17</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" name="院系/年级3">
+      <calculatedColumnFormula>中国区项目计划书!D17</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" name="电话3">
+      <calculatedColumnFormula>中国区项目计划书!E17</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" name="IC站点注册Email3">
+      <calculatedColumnFormula>中国区项目计划书!F17</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" name="选手四">
+      <calculatedColumnFormula>中国区项目计划书!B18</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" name="学校名称4">
+      <calculatedColumnFormula>中国区项目计划书!C18</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="28" name="院系/年级4">
+      <calculatedColumnFormula>中国区项目计划书!D18</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="29" name="电话4">
+      <calculatedColumnFormula>中国区项目计划书!E18</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="30" name="IC站点注册Email4">
+      <calculatedColumnFormula>中国区项目计划书!F18</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="31" name="导师">
+      <calculatedColumnFormula>中国区项目计划书!B19</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="32" name="学校名称5">
+      <calculatedColumnFormula>中国区项目计划书!C19</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="33" name="院系/年级5">
+      <calculatedColumnFormula>中国区项目计划书!D19</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="34" name="电话5">
+      <calculatedColumnFormula>中国区项目计划书!E19</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="35" name="IC站点注册Email5">
+      <calculatedColumnFormula>中国区项目计划书!F19</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -5496,781 +5113,810 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="25"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:F54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="20.4285714285714" style="20" customWidth="1"/>
-    <col min="3" max="3" width="25.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="26.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="24.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
     <col min="6" max="6" width="38" customWidth="1"/>
     <col min="11" max="14" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="53.25" customHeight="1" spans="2:6">
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="2:12" ht="53.25" customHeight="1">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2" ht="48" customHeight="1" spans="2:6">
-      <c r="B2" s="22" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+    </row>
+    <row r="2" spans="2:12" ht="48" customHeight="1">
+      <c r="B2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-    </row>
-    <row r="3" ht="15.75" spans="2:6">
-      <c r="B3" s="23" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
-    </row>
-    <row r="4" ht="17.25" spans="2:6">
-      <c r="B4" s="26" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
+    </row>
+    <row r="4" spans="2:12" ht="16.5">
+      <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-    </row>
-    <row r="5" ht="17.25" spans="2:6">
-      <c r="B5" s="26" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+    </row>
+    <row r="5" spans="2:12" ht="16.5">
+      <c r="B5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-    </row>
-    <row r="6" ht="17.25" spans="2:6">
-      <c r="B6" s="26" t="s">
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+    </row>
+    <row r="6" spans="2:12" ht="16.5">
+      <c r="B6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-    </row>
-    <row r="7" ht="17.25" spans="2:6">
-      <c r="B7" s="26" t="s">
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+    </row>
+    <row r="7" spans="2:12" ht="16.5">
+      <c r="B7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-    </row>
-    <row r="8" ht="17.25" spans="2:6">
-      <c r="B8" s="26" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+    </row>
+    <row r="8" spans="2:12" ht="16.5">
+      <c r="B8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="50">
         <v>18840820726</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-    </row>
-    <row r="9" ht="17.25" spans="2:6">
-      <c r="B9" s="26" t="s">
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+    </row>
+    <row r="9" spans="2:12" ht="16.5">
+      <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-    </row>
-    <row r="10" ht="17.25" spans="2:12">
-      <c r="B10" s="26" t="s">
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+    </row>
+    <row r="10" spans="2:12" ht="16.5">
+      <c r="B10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="L10" s="80" t="s">
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="L10" s="39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" ht="17.25" spans="2:12">
-      <c r="B11" s="26" t="s">
+    <row r="11" spans="2:12" ht="16.5">
+      <c r="B11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="L11" s="80" t="s">
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="L11" s="39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" ht="17.25" customHeight="1" spans="2:12">
-      <c r="B12" s="26" t="s">
+    <row r="12" spans="2:12" ht="17.25" customHeight="1">
+      <c r="B12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
-      <c r="L12" s="80" t="s">
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="55"/>
+      <c r="L12" s="39" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" ht="17.25" spans="2:6">
-      <c r="B13" s="26" t="s">
+    <row r="13" spans="2:12" ht="16.5">
+      <c r="B13" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-    </row>
-    <row r="14" ht="15.75" spans="2:6">
-      <c r="B14" s="32" t="s">
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
-    </row>
-    <row r="15" ht="17.25" spans="2:6">
-      <c r="B15" s="35" t="s">
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58"/>
+    </row>
+    <row r="15" spans="2:12" ht="16.5">
+      <c r="B15" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" ht="15.75" spans="2:6">
-      <c r="B16" s="38" t="s">
+    <row r="16" spans="2:12">
+      <c r="B16" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="27">
         <v>18840820726</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" ht="15.75" spans="2:6">
-      <c r="B17" s="38" t="s">
+    <row r="17" spans="1:7">
+      <c r="B17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="27">
         <v>18840820385</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" ht="15.75" spans="2:6">
-      <c r="B18" s="38" t="s">
+    <row r="18" spans="1:7">
+      <c r="B18" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="27">
         <v>18840821916</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" ht="15.75" spans="2:6">
-      <c r="B19" s="38" t="s">
+    <row r="19" spans="1:7">
+      <c r="B19" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="27">
         <v>18840822141</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" ht="15.75" spans="2:6">
-      <c r="B20" s="38" t="s">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1">
+      <c r="B20" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="27">
         <v>18904082196</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" ht="15.75" spans="2:6">
-      <c r="B21" s="43" t="s">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1">
+      <c r="B21" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45"/>
-    </row>
-    <row r="22" ht="20.25" customHeight="1" spans="2:6">
-      <c r="B22" s="46" t="s">
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B22" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-    </row>
-    <row r="23" ht="17.25" spans="2:6">
-      <c r="B23" s="48" t="s">
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+    </row>
+    <row r="23" spans="1:7" ht="17.25" thickBot="1">
+      <c r="B23" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="36"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A24" s="51"/>
-      <c r="B24" s="52" t="s">
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="66"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A24" s="31"/>
+      <c r="B24" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54"/>
-    </row>
-    <row r="25" ht="75.75" customHeight="1" spans="2:6">
-      <c r="B25" s="55" t="s">
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="32"/>
+    </row>
+    <row r="25" spans="1:7" ht="75.75" customHeight="1">
+      <c r="B25" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="56"/>
-    </row>
-    <row r="26" ht="102" customHeight="1" spans="2:6">
-      <c r="B26" s="57" t="s">
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="70"/>
+    </row>
+    <row r="26" spans="1:7" ht="102" customHeight="1">
+      <c r="B26" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="56"/>
-    </row>
-    <row r="27" ht="66.75" customHeight="1" spans="2:6">
-      <c r="B27" s="58" t="s">
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="70"/>
+    </row>
+    <row r="27" spans="1:7" ht="66.75" customHeight="1" thickBot="1">
+      <c r="B27" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="60"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="46" t="s">
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="102"/>
+    </row>
+    <row r="28" spans="1:7" ht="21" customHeight="1">
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-    </row>
-    <row r="29" ht="71.25" customHeight="1" spans="2:6">
-      <c r="B29" s="61" t="s">
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+    </row>
+    <row r="30" spans="1:7" ht="71.25" customHeight="1" thickBot="1">
+      <c r="B30" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-    </row>
-    <row r="30" ht="46.5" customHeight="1" spans="2:6">
-      <c r="B30" s="62" t="s">
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+    </row>
+    <row r="31" spans="1:7" ht="46.5" customHeight="1">
+      <c r="B31" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="64"/>
-    </row>
-    <row r="31" ht="54.75" customHeight="1" spans="2:6">
-      <c r="B31" s="57"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="56"/>
-    </row>
-    <row r="32" ht="63.75" customHeight="1" spans="2:6">
-      <c r="B32" s="57"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="56"/>
-    </row>
-    <row r="33" ht="52.5" customHeight="1" spans="2:6">
-      <c r="B33" s="57"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="56"/>
-    </row>
-    <row r="34" ht="150" customHeight="1" spans="2:7">
-      <c r="B34" s="65"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="68"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="46" t="s">
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="78"/>
+    </row>
+    <row r="32" spans="1:7" ht="54.75" customHeight="1">
+      <c r="B32" s="71"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="70"/>
+    </row>
+    <row r="33" spans="1:7" ht="63.75" customHeight="1">
+      <c r="B33" s="71"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="70"/>
+    </row>
+    <row r="34" spans="1:7" ht="52.5" customHeight="1">
+      <c r="B34" s="71"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="70"/>
+    </row>
+    <row r="35" spans="1:7" ht="150" customHeight="1" thickBot="1">
+      <c r="B35" s="79"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="33"/>
+    </row>
+    <row r="36" spans="1:7" ht="42" customHeight="1">
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="33"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-    </row>
-    <row r="36" ht="63.95" customHeight="1" spans="2:6">
-      <c r="B36" s="69" t="s">
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+    </row>
+    <row r="38" spans="1:7" ht="63.95" customHeight="1" thickBot="1">
+      <c r="B38" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-    </row>
-    <row r="37" ht="56.25" customHeight="1" spans="2:6">
-      <c r="B37" s="70" t="s">
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+    </row>
+    <row r="39" spans="1:7" ht="56.25" customHeight="1">
+      <c r="B39" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="72"/>
-    </row>
-    <row r="38" ht="52.5" customHeight="1" spans="2:6">
-      <c r="B38" s="73"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="75"/>
-    </row>
-    <row r="39" ht="47.25" customHeight="1" spans="2:6">
-      <c r="B39" s="73"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="75"/>
-    </row>
-    <row r="40" ht="63" customHeight="1" spans="2:6">
-      <c r="B40" s="73"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="75"/>
-    </row>
-    <row r="41" ht="60" customHeight="1" spans="2:6">
-      <c r="B41" s="73"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="75"/>
-    </row>
-    <row r="42" ht="58.5" customHeight="1" spans="2:6">
-      <c r="B42" s="73"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="75"/>
-    </row>
-    <row r="43" ht="54" customHeight="1" spans="2:6">
-      <c r="B43" s="73"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="75"/>
-    </row>
-    <row r="44" ht="41.25" customHeight="1" spans="2:6">
-      <c r="B44" s="73"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="75"/>
-    </row>
-    <row r="45" ht="45.75" customHeight="1" spans="2:6">
-      <c r="B45" s="73"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="75"/>
-    </row>
-    <row r="46" ht="240.95" customHeight="1" spans="1:7">
-      <c r="A46" s="51"/>
-      <c r="B46" s="76" t="s">
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="84"/>
+    </row>
+    <row r="40" spans="1:7" ht="52.5" customHeight="1">
+      <c r="B40" s="85"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="87"/>
+    </row>
+    <row r="41" spans="1:7" ht="47.25" customHeight="1">
+      <c r="B41" s="85"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="87"/>
+    </row>
+    <row r="42" spans="1:7" ht="63" customHeight="1">
+      <c r="B42" s="85"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="87"/>
+    </row>
+    <row r="43" spans="1:7" ht="60" customHeight="1">
+      <c r="B43" s="85"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="87"/>
+    </row>
+    <row r="44" spans="1:7" ht="58.5" customHeight="1">
+      <c r="B44" s="85"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="86"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="87"/>
+    </row>
+    <row r="45" spans="1:7" ht="54" customHeight="1">
+      <c r="B45" s="85"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="87"/>
+    </row>
+    <row r="46" spans="1:7" ht="41.25" customHeight="1">
+      <c r="B46" s="85"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="87"/>
+    </row>
+    <row r="47" spans="1:7" ht="45.75" customHeight="1">
+      <c r="B47" s="85"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="87"/>
+    </row>
+    <row r="48" spans="1:7" ht="264.75" customHeight="1">
+      <c r="A48" s="31"/>
+      <c r="B48" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="54"/>
-    </row>
-    <row r="47" s="19" customFormat="1" spans="2:6">
-      <c r="B47" s="46" t="s">
+      <c r="C48" s="95"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="32"/>
+    </row>
+    <row r="49" spans="2:7" s="19" customFormat="1">
+      <c r="B49" s="62" t="s">
         <v>55</v>
-      </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-    </row>
-    <row r="48" s="19" customFormat="1" ht="39.75" customHeight="1" spans="2:6">
-      <c r="B48" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="77" t="s">
-        <v>57</v>
       </c>
       <c r="C49" s="63"/>
       <c r="D49" s="63"/>
       <c r="E49" s="63"/>
-      <c r="F49" s="64"/>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="57"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="56"/>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="57"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="56"/>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="57"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="56"/>
-    </row>
-    <row r="53" ht="75.95" customHeight="1" spans="2:6">
-      <c r="B53" s="65"/>
-      <c r="C53" s="66"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="66"/>
-      <c r="F53" s="67"/>
-    </row>
-    <row r="54" s="19" customFormat="1" spans="2:6">
-      <c r="B54" s="46" t="s">
+      <c r="F49" s="63"/>
+    </row>
+    <row r="50" spans="2:7" s="19" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
+      <c r="B50" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="97"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="98"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="71"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="70"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="71"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="70"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="71"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="70"/>
+    </row>
+    <row r="55" spans="2:7" ht="75.95" customHeight="1" thickBot="1">
+      <c r="B55" s="79"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="81"/>
+    </row>
+    <row r="56" spans="2:7" ht="198.75" customHeight="1">
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+    </row>
+    <row r="57" spans="2:7" s="19" customFormat="1">
+      <c r="B57" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-    </row>
-    <row r="55" s="19" customFormat="1" ht="51.75" customHeight="1" spans="2:6">
-      <c r="B55" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="69"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="71"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="72"/>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="73"/>
       <c r="C57" s="74"/>
       <c r="D57" s="74"/>
       <c r="E57" s="74"/>
-      <c r="F57" s="75"/>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="73"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="74"/>
-      <c r="E58" s="74"/>
+      <c r="F57" s="74"/>
+    </row>
+    <row r="58" spans="2:7" s="19" customFormat="1" ht="51.75" customHeight="1" thickBot="1">
+      <c r="B58" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="75"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="75"/>
       <c r="F58" s="75"/>
     </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="73"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="75"/>
-    </row>
-    <row r="60" ht="147" customHeight="1" spans="2:6">
-      <c r="B60" s="73"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="75"/>
-    </row>
-    <row r="61" ht="137.25" customHeight="1" spans="2:7">
-      <c r="B61" s="73"/>
-      <c r="C61" s="74"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="75"/>
-      <c r="G61" s="79"/>
-    </row>
-    <row r="62" ht="117.75" customHeight="1" spans="2:7">
-      <c r="B62" s="73"/>
-      <c r="C62" s="74"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="75"/>
-      <c r="G62" s="79"/>
-    </row>
-    <row r="63" ht="117.75" customHeight="1" spans="2:7">
-      <c r="B63" s="73"/>
-      <c r="C63" s="74"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="75"/>
-      <c r="G63" s="79"/>
-    </row>
-    <row r="64" ht="117.75" customHeight="1" spans="2:7">
-      <c r="B64" s="73"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="74"/>
-      <c r="E64" s="74"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="79"/>
-    </row>
-    <row r="65" ht="117.75" customHeight="1" spans="2:7">
-      <c r="B65" s="73"/>
-      <c r="C65" s="74"/>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="75"/>
-      <c r="G65" s="79"/>
-    </row>
-    <row r="66" ht="73.5" customHeight="1" spans="2:7">
-      <c r="B66" s="81"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="82"/>
-      <c r="G66" s="79"/>
-    </row>
-    <row r="67" spans="2:6">
-      <c r="B67" s="83" t="s">
+    <row r="59" spans="2:7">
+      <c r="B59" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="83"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="84"/>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="85"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="86"/>
+      <c r="E60" s="86"/>
+      <c r="F60" s="87"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="85"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="87"/>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="85"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="87"/>
+    </row>
+    <row r="63" spans="2:7" ht="147" customHeight="1">
+      <c r="B63" s="85"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="86"/>
+      <c r="E63" s="86"/>
+      <c r="F63" s="87"/>
+    </row>
+    <row r="64" spans="2:7" ht="137.25" customHeight="1">
+      <c r="B64" s="85"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="86"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="87"/>
+      <c r="G64" s="38"/>
+    </row>
+    <row r="65" spans="2:7" ht="117.75" customHeight="1">
+      <c r="B65" s="34"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="38"/>
+    </row>
+    <row r="66" spans="2:7" ht="117.75" customHeight="1">
+      <c r="B66" s="34"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="38"/>
+    </row>
+    <row r="67" spans="2:7" ht="117.75" customHeight="1">
+      <c r="B67" s="34"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="38"/>
+    </row>
+    <row r="68" spans="2:7" ht="117.75" customHeight="1">
+      <c r="B68" s="34"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="38"/>
+    </row>
+    <row r="69" spans="2:7" ht="73.5" customHeight="1" thickBot="1">
+      <c r="B69" s="40"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="38"/>
+    </row>
+    <row r="70" spans="2:7" ht="19.5" customHeight="1">
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="38"/>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="C67" s="84"/>
-      <c r="D67" s="84"/>
-      <c r="E67" s="84"/>
-      <c r="F67" s="84"/>
-    </row>
-    <row r="68" ht="17.25" spans="2:6">
-      <c r="B68" s="61" t="s">
+      <c r="C71" s="74"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="74"/>
+    </row>
+    <row r="72" spans="2:7" ht="16.5">
+      <c r="B72" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="C68" s="61"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="61"/>
-    </row>
-    <row r="69" spans="2:6">
-      <c r="B69" s="77"/>
-      <c r="C69" s="63"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="63"/>
-      <c r="F69" s="64"/>
-    </row>
-    <row r="70" spans="2:6">
-      <c r="B70" s="57"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="56"/>
-    </row>
-    <row r="71" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B71" s="57"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
-      <c r="F71" s="56"/>
-    </row>
-    <row r="72" ht="21.75" customHeight="1" spans="2:6">
-      <c r="B72" s="57"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="56"/>
-    </row>
-    <row r="73" ht="45" customHeight="1" spans="2:6">
-      <c r="B73" s="65"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="67"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="88"/>
+      <c r="C73" s="89"/>
+      <c r="D73" s="89"/>
+      <c r="E73" s="89"/>
+      <c r="F73" s="90"/>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="71"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="70"/>
+    </row>
+    <row r="75" spans="2:7" ht="22.5" customHeight="1">
+      <c r="B75" s="71"/>
+      <c r="C75" s="68"/>
+      <c r="D75" s="68"/>
+      <c r="E75" s="68"/>
+      <c r="F75" s="70"/>
+    </row>
+    <row r="76" spans="2:7" ht="21.75" customHeight="1">
+      <c r="B76" s="71"/>
+      <c r="C76" s="68"/>
+      <c r="D76" s="68"/>
+      <c r="E76" s="68"/>
+      <c r="F76" s="70"/>
+    </row>
+    <row r="77" spans="2:7" ht="45" customHeight="1">
+      <c r="B77" s="91"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="92"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B31:F35"/>
+    <mergeCell ref="B39:F44"/>
+    <mergeCell ref="B73:F77"/>
+    <mergeCell ref="B59:F63"/>
+    <mergeCell ref="B51:F55"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B30:F34"/>
-    <mergeCell ref="B37:F42"/>
-    <mergeCell ref="B69:F73"/>
-    <mergeCell ref="B56:F60"/>
-    <mergeCell ref="B49:F53"/>
   </mergeCells>
+  <phoneticPr fontId="30" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:F13">
       <formula1>$L$10:$L$12</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F16" r:id="rId2" display="solowolf@outlook.com"/>
-    <hyperlink ref="F20" r:id="rId3" display="yuyaye@outlook.com"/>
-    <hyperlink ref="F18" r:id="rId4" display="Silver_Z@outlook.com" tooltip="mailto:Silver_Z@outlook.com"/>
-    <hyperlink ref="F17" r:id="rId5" display="tankle_@hotmail.com"/>
-    <hyperlink ref="C9" r:id="rId6" display="swfeng@dlmu.edu.cn" tooltip="mailto:swfeng@dlmu.edu.cn"/>
-    <hyperlink ref="F19" r:id="rId7" display="yaosiyi2957@outlook.com"/>
+    <hyperlink ref="F16" r:id="rId1"/>
+    <hyperlink ref="F20" r:id="rId2"/>
+    <hyperlink ref="F18" r:id="rId3" tooltip="mailto:Silver_Z@outlook.com"/>
+    <hyperlink ref="F17" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5" tooltip="mailto:swfeng@dlmu.edu.cn"/>
+    <hyperlink ref="F19" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="C5:T25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:T25"/>
   <sheetViews>
     <sheetView topLeftCell="J31" workbookViewId="0">
       <selection activeCell="S63" sqref="S63"/>
@@ -6278,25 +5924,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="10.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="9.71428571428571" customWidth="1"/>
-    <col min="6" max="6" width="9.85714285714286" customWidth="1"/>
-    <col min="7" max="7" width="7.85714285714286" customWidth="1"/>
-    <col min="8" max="9" width="12.2857142857143" customWidth="1"/>
-    <col min="10" max="10" width="11.2857142857143" customWidth="1"/>
-    <col min="11" max="11" width="10.2857142857143" customWidth="1"/>
-    <col min="12" max="12" width="9.85714285714286" customWidth="1"/>
-    <col min="14" max="14" width="7.14285714285714" customWidth="1"/>
-    <col min="15" max="15" width="15.5714285714286" style="3" customWidth="1"/>
-    <col min="16" max="16" width="11.7142857142857" customWidth="1"/>
-    <col min="17" max="17" width="12.8571428571429" customWidth="1"/>
-    <col min="18" max="18" width="16.8571428571429" customWidth="1"/>
-    <col min="19" max="19" width="10.5714285714286" customWidth="1"/>
-    <col min="20" max="20" width="8.85714285714286" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" customWidth="1"/>
+    <col min="8" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" ht="15.75"/>
-    <row r="6" s="1" customFormat="1" ht="15.75" spans="3:15">
+    <row r="6" spans="3:15" s="1" customFormat="1">
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
         <v>63</v>
@@ -6327,7 +5972,7 @@
       </c>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" ht="15.75" spans="3:12">
+    <row r="7" spans="3:15" ht="15.75">
       <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
@@ -6349,7 +5994,7 @@
       </c>
       <c r="L7" s="14"/>
     </row>
-    <row r="8" ht="15.75" spans="3:12">
+    <row r="8" spans="3:15" ht="15.75">
       <c r="C8" s="9" t="s">
         <v>30</v>
       </c>
@@ -6371,7 +6016,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="14"/>
     </row>
-    <row r="9" ht="15.75" spans="3:12">
+    <row r="9" spans="3:15" ht="15.75">
       <c r="C9" s="9" t="s">
         <v>32</v>
       </c>
@@ -6393,7 +6038,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="3:12">
+    <row r="10" spans="3:15" ht="15.75">
       <c r="C10" s="10" t="s">
         <v>34</v>
       </c>
@@ -6415,7 +6060,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="23.1" customHeight="1" spans="16:20">
+    <row r="20" spans="15:20" s="2" customFormat="1" ht="23.1" customHeight="1">
       <c r="P20" s="2" t="s">
         <v>73</v>
       </c>
@@ -6432,7 +6077,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" ht="36" customHeight="1" spans="15:20">
+    <row r="21" spans="15:20" ht="36" customHeight="1">
       <c r="O21" s="17" t="s">
         <v>78</v>
       </c>
@@ -6452,7 +6097,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" ht="42.95" customHeight="1" spans="15:20">
+    <row r="22" spans="15:20" ht="42.95" customHeight="1">
       <c r="O22" s="17" t="s">
         <v>81</v>
       </c>
@@ -6472,7 +6117,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" ht="24" customHeight="1" spans="15:20">
+    <row r="23" spans="15:20" ht="24" customHeight="1">
       <c r="O23" s="18" t="s">
         <v>82</v>
       </c>
@@ -6492,7 +6137,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" ht="36" customHeight="1" spans="15:20">
+    <row r="24" spans="15:20" ht="36" customHeight="1">
       <c r="O24" s="17" t="s">
         <v>83</v>
       </c>
@@ -6512,7 +6157,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" ht="33" customHeight="1" spans="15:20">
+    <row r="25" spans="15:20" ht="33" customHeight="1">
       <c r="O25" s="17" t="s">
         <v>84</v>
       </c>
@@ -6533,54 +6178,51 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="30" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="16.2857142857143" customWidth="1"/>
-    <col min="3" max="7" width="11.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="20.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="17.1428571428571" customWidth="1"/>
-    <col min="10" max="10" width="11.8571428571429" customWidth="1"/>
-    <col min="11" max="11" width="9.71428571428571" customWidth="1"/>
-    <col min="12" max="12" width="12.8571428571429" customWidth="1"/>
-    <col min="13" max="13" width="13.7142857142857" customWidth="1"/>
-    <col min="14" max="14" width="8.57142857142857" customWidth="1"/>
-    <col min="15" max="15" width="19.7142857142857" customWidth="1"/>
-    <col min="16" max="16" width="9.71428571428571" customWidth="1"/>
-    <col min="17" max="17" width="12.8571428571429" customWidth="1"/>
-    <col min="18" max="18" width="13.7142857142857" customWidth="1"/>
-    <col min="19" max="19" width="8.57142857142857" customWidth="1"/>
-    <col min="20" max="20" width="19.7142857142857" customWidth="1"/>
-    <col min="21" max="21" width="9.71428571428571" customWidth="1"/>
-    <col min="22" max="22" width="12.8571428571429" customWidth="1"/>
-    <col min="23" max="23" width="13.7142857142857" customWidth="1"/>
-    <col min="24" max="24" width="8.57142857142857" customWidth="1"/>
-    <col min="25" max="25" width="20.7142857142857" customWidth="1"/>
-    <col min="26" max="26" width="9.71428571428571" customWidth="1"/>
-    <col min="27" max="27" width="13.8571428571429" customWidth="1"/>
-    <col min="28" max="28" width="15.7142857142857" customWidth="1"/>
-    <col min="29" max="29" width="9.57142857142857" customWidth="1"/>
-    <col min="30" max="30" width="20.7142857142857" customWidth="1"/>
-    <col min="31" max="31" width="7.57142857142857" customWidth="1"/>
-    <col min="32" max="32" width="13.8571428571429" customWidth="1"/>
-    <col min="33" max="33" width="14.7142857142857" customWidth="1"/>
-    <col min="34" max="34" width="9.57142857142857" customWidth="1"/>
-    <col min="35" max="35" width="20.7142857142857" customWidth="1"/>
+    <col min="1" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" customWidth="1"/>
+    <col min="25" max="25" width="20.7109375" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" customWidth="1"/>
+    <col min="27" max="27" width="13.85546875" customWidth="1"/>
+    <col min="28" max="28" width="15.7109375" customWidth="1"/>
+    <col min="29" max="29" width="9.5703125" customWidth="1"/>
+    <col min="30" max="30" width="20.7109375" customWidth="1"/>
+    <col min="31" max="31" width="7.5703125" customWidth="1"/>
+    <col min="32" max="32" width="13.85546875" customWidth="1"/>
+    <col min="33" max="33" width="14.7109375" customWidth="1"/>
+    <col min="34" max="34" width="9.5703125" customWidth="1"/>
+    <col min="35" max="35" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -6833,11 +6475,11 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="30" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>